--- a/Tickets/Normal Tickets/Ticket 36031 - JIT pos not working/Test/Test Plan.xlsx
+++ b/Tickets/Normal Tickets/Ticket 36031 - JIT pos not working/Test/Test Plan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\WIP\Tickets\Normal Tickets\Ticket 36031 - JIT pos not working\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\WIP\Tickets\Normal Tickets\Ticket 36031 - JIT pos not working\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29FB26A0-BBA2-4760-8CD5-85A8B2C0C0EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F16E8AB-E7A5-4D5E-A7B0-E5108C20417A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-11715" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18090" yWindow="-14625" windowWidth="21540" windowHeight="11145" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="40" r:id="rId1"/>
@@ -152,16 +152,18 @@
     <t>Bad xml gemerated for PORTOI</t>
   </si>
   <si>
-    <t>The issue with the above xml is that the object is creating two order for the supplier 1225887 with Warehouse CL-RAW and CL-PR. Further examination of the object shows that the two orders contains the same items.</t>
-  </si>
-  <si>
     <t>PORTOI object creates bad orders</t>
   </si>
   <si>
     <t>Procedure generates good data.</t>
   </si>
   <si>
-    <t xml:space="preserve">This snippet from the object shows that the items within an order are divided up by supplier and warehouse now. </t>
+    <t>The issue with the above xml is that the object is creating two order for the supplier 1225887 with Warehouse CL-RAW and CL-PR. Further examination of the object shows that the two orders contains the same items.
+This object can be viewed from BAD_Schedule_C221205_04.xml</t>
+  </si>
+  <si>
+    <t>This snippet from the object shows that the items within an order are divided up by supplier and warehouse now. 
+GOOD_Schedule_C221205_04.xml</t>
   </si>
 </sst>
 </file>
@@ -445,98 +447,98 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -654,7 +656,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1535031</xdr:colOff>
+      <xdr:colOff>1531856</xdr:colOff>
       <xdr:row>116</xdr:row>
       <xdr:rowOff>1058</xdr:rowOff>
     </xdr:to>
@@ -698,9 +700,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>239433</xdr:colOff>
+      <xdr:colOff>236258</xdr:colOff>
       <xdr:row>156</xdr:row>
-      <xdr:rowOff>124611</xdr:rowOff>
+      <xdr:rowOff>121436</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1105,128 +1107,121 @@
       <c r="E2" s="19"/>
     </row>
     <row r="3" spans="1:5" ht="13" x14ac:dyDescent="0.25">
-      <c r="A3" s="27"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="35"/>
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="33"/>
     </row>
     <row r="4" spans="1:5" ht="26" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
     </row>
     <row r="5" spans="1:5" ht="13" x14ac:dyDescent="0.25">
-      <c r="A5" s="27"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="35"/>
+      <c r="A5" s="31"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="33"/>
     </row>
     <row r="6" spans="1:5" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="30"/>
+      <c r="B6" s="28"/>
       <c r="C6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="33"/>
-      <c r="E6" s="34"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="30"/>
     </row>
     <row r="7" spans="1:5" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="30"/>
+      <c r="B7" s="28"/>
       <c r="C7" s="5"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="34"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="30"/>
     </row>
     <row r="8" spans="1:5" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="30"/>
+      <c r="B8" s="28"/>
       <c r="C8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
     </row>
     <row r="9" spans="1:5" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="30"/>
+      <c r="B9" s="28"/>
       <c r="C9" s="5"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
     </row>
     <row r="10" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
     </row>
     <row r="11" spans="1:5" ht="13" x14ac:dyDescent="0.25">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="28"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="32"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>1</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
     </row>
     <row r="13" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>2</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>3</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="D6:E6"/>
     <mergeCell ref="A11:E11"/>
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="B14:E14"/>
@@ -1236,6 +1231,13 @@
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="B10:E10"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:E6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1250,8 +1252,8 @@
   <dimension ref="A1:F159"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A129" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C159" sqref="C159:F159"/>
+      <pane ySplit="5" topLeftCell="A151" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D164" sqref="D164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1266,58 +1268,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="40"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="56"/>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="29">
+      <c r="B2" s="57"/>
+      <c r="C2" s="35">
         <v>1</v>
       </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="29" t="str">
+      <c r="B3" s="57"/>
+      <c r="C3" s="35" t="str">
         <f>'Test Cases'!B2</f>
         <v>Verify new procedure</v>
       </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="29" t="str">
+      <c r="B4" s="57"/>
+      <c r="C4" s="35" t="str">
         <f>'Test Cases'!D2</f>
         <v>SQL Server Management Studio</v>
       </c>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="55"/>
       <c r="D5" s="20" t="s">
         <v>19</v>
       </c>
@@ -1329,20 +1331,20 @@
       </c>
     </row>
     <row r="6" spans="1:6" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
     </row>
     <row r="7" spans="1:6" s="10" customFormat="1" ht="25" x14ac:dyDescent="0.25">
-      <c r="A7" s="38">
+      <c r="A7" s="53">
         <v>1</v>
       </c>
-      <c r="B7" s="39"/>
+      <c r="B7" s="54"/>
       <c r="C7" s="24" t="s">
         <v>31</v>
       </c>
@@ -1353,7 +1355,7 @@
         <v>34</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="10" customFormat="1" ht="25" x14ac:dyDescent="0.25">
@@ -1373,78 +1375,78 @@
       <c r="F8" s="11"/>
     </row>
     <row r="9" spans="1:6" s="10" customFormat="1" ht="13" x14ac:dyDescent="0.25">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
     </row>
     <row r="10" spans="1:6" s="10" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="45"/>
-      <c r="B10" s="46"/>
-      <c r="C10" s="47" t="s">
+      <c r="A10" s="40"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="48"/>
-      <c r="E10" s="49"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="44"/>
       <c r="F10" s="11"/>
     </row>
     <row r="11" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="45"/>
-      <c r="B11" s="46"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="52"/>
+      <c r="A11" s="40"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="47"/>
       <c r="F11" s="11"/>
     </row>
     <row r="12" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="43"/>
-      <c r="B12" s="44"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="52"/>
+      <c r="A12" s="38"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="47"/>
       <c r="F12" s="11"/>
     </row>
     <row r="13" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="43"/>
-      <c r="B13" s="44"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="55"/>
+      <c r="A13" s="38"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="50"/>
       <c r="F13" s="11"/>
     </row>
     <row r="14" spans="1:6" s="10" customFormat="1" ht="13" x14ac:dyDescent="0.25">
-      <c r="A14" s="37" t="s">
+      <c r="A14" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
     </row>
     <row r="15" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="38"/>
-      <c r="B15" s="39"/>
+      <c r="A15" s="53"/>
+      <c r="B15" s="54"/>
       <c r="C15" s="23"/>
       <c r="D15" s="12"/>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
     </row>
     <row r="16" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="43"/>
-      <c r="B16" s="44"/>
+      <c r="A16" s="38"/>
+      <c r="B16" s="39"/>
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
       <c r="F16" s="15"/>
     </row>
     <row r="17" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="38"/>
-      <c r="B17" s="39"/>
+      <c r="A17" s="53"/>
+      <c r="B17" s="54"/>
       <c r="C17" s="23"/>
       <c r="D17" s="12"/>
       <c r="E17" s="11"/>
@@ -1459,64 +1461,75 @@
       <c r="F18" s="14"/>
     </row>
     <row r="19" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="43"/>
-      <c r="B19" s="44"/>
+      <c r="A19" s="38"/>
+      <c r="B19" s="39"/>
       <c r="C19" s="18"/>
       <c r="D19" s="18"/>
       <c r="E19" s="18"/>
       <c r="F19" s="16"/>
     </row>
     <row r="20" spans="1:6" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="27" t="s">
+      <c r="A20" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="28"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="32"/>
     </row>
     <row r="21" spans="1:6" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="42"/>
-      <c r="B21" s="42"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="42"/>
+      <c r="A21" s="51"/>
+      <c r="B21" s="51"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="51"/>
     </row>
     <row r="23" spans="1:6" ht="13" x14ac:dyDescent="0.3">
-      <c r="C23" s="56" t="s">
+      <c r="C23" s="27" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="37" spans="3:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="C37" s="56" t="s">
+      <c r="C37" s="27" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="118" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C118" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="D118" s="57"/>
-      <c r="E118" s="57"/>
-      <c r="F118" s="57"/>
+    <row r="118" spans="3:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C118" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="D118" s="37"/>
+      <c r="E118" s="37"/>
+      <c r="F118" s="37"/>
     </row>
     <row r="121" spans="3:6" ht="13" x14ac:dyDescent="0.3">
-      <c r="C121" s="56" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="159" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C159" s="57" t="s">
+      <c r="C121" s="27" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="159" spans="3:6" ht="30.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C159" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="D159" s="57"/>
-      <c r="E159" s="57"/>
-      <c r="F159" s="57"/>
+      <c r="D159" s="37"/>
+      <c r="E159" s="37"/>
+      <c r="F159" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="A7:B7"/>
     <mergeCell ref="C118:F118"/>
     <mergeCell ref="C159:F159"/>
     <mergeCell ref="A13:B13"/>
@@ -1531,17 +1544,6 @@
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="A7:B7"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1552,14 +1554,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1a638d2c-e7c0-419c-9191-e92086f67d97">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="84e25877-5f26-4dc3-9598-48e40fb4ec5c" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1794,12 +1794,14 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1a638d2c-e7c0-419c-9191-e92086f67d97">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="84e25877-5f26-4dc3-9598-48e40fb4ec5c" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1807,12 +1809,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1336CC8-439A-433F-AFCD-D3738BD4CF84}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{433CEB9C-4DCB-4DF9-8E44-99AD43459D1C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="1a638d2c-e7c0-419c-9191-e92086f67d97"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="84e25877-5f26-4dc3-9598-48e40fb4ec5c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1837,9 +1836,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{433CEB9C-4DCB-4DF9-8E44-99AD43459D1C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1336CC8-439A-433F-AFCD-D3738BD4CF84}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1a638d2c-e7c0-419c-9191-e92086f67d97"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="84e25877-5f26-4dc3-9598-48e40fb4ec5c"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
